--- a/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T17:24:18+00:00</t>
+    <t>2025-05-03T11:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T11:17:55+00:00</t>
+    <t>2025-05-03T14:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T14:02:53+00:00</t>
+    <t>2025-05-03T14:33:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T14:33:40+00:00</t>
+    <t>2025-05-03T15:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T15:10:00+00:00</t>
+    <t>2025-05-03T15:16:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T15:16:04+00:00</t>
+    <t>2025-05-03T16:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T16:40:31+00:00</t>
+    <t>2025-05-05T07:27:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:27:11+00:00</t>
+    <t>2025-05-05T07:53:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:53:58+00:00</t>
+    <t>2025-05-05T08:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:00:51+00:00</t>
+    <t>2025-05-05T11:54:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T11:54:16+00:00</t>
+    <t>2025-05-05T14:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:17:01+00:00</t>
+    <t>2025-05-05T14:44:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="99">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:44:38+00:00</t>
+    <t>2025-05-05T16:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -112,13 +112,13 @@
     <t>Type</t>
   </si>
   <si>
-    <t>integer</t>
+    <t>string</t>
   </si>
   <si>
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/integer</t>
+    <t>http://hl7.org/fhir/StructureDefinition/string</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -254,20 +254,20 @@
 </t>
   </si>
   <si>
-    <t>Primitive Type integer</t>
-  </si>
-  <si>
-    <t>A whole number</t>
-  </si>
-  <si>
-    <t>32 bit number; for values larger than this, use decimal</t>
+    <t>Primitive Type string</t>
+  </si>
+  <si>
+    <t>A sequence of Unicode characters</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>integer.id</t>
+    <t>string.id</t>
   </si>
   <si>
     <t>1</t>
@@ -286,7 +286,7 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>integer.extension</t>
+    <t>string.extension</t>
   </si>
   <si>
     <t>extensions
@@ -313,23 +313,16 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>integer.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer
-</t>
-  </si>
-  <si>
-    <t>Primitive value for integer</t>
+    <t>string.value</t>
+  </si>
+  <si>
+    <t>Primitive value for string</t>
   </si>
   <si>
     <t>The actual value</t>
   </si>
   <si>
-    <t>-2147483648</t>
-  </si>
-  <si>
-    <t>2147483647</t>
+    <t>1048576</t>
   </si>
 </sst>
 </file>
@@ -643,8 +636,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="10.83984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -1122,13 +1115,13 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1146,13 +1139,13 @@
         <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="X5" t="s" s="2">
         <v>73</v>

--- a/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T16:33:44+00:00</t>
+    <t>2025-05-06T07:21:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:21:29+00:00</t>
+    <t>2025-05-06T07:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:28:27+00:00</t>
+    <t>2025-05-06T07:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:38:42+00:00</t>
+    <t>2025-05-06T13:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-IdentifiantSysteme.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T13:57:20+00:00</t>
+    <t>2025-05-19T16:11:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
